--- a/biology/Botanique/Rhododendron_polylepis/Rhododendron_polylepis.xlsx
+++ b/biology/Botanique/Rhododendron_polylepis/Rhododendron_polylepis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rhododendron polylepis est une espèce d’arbuste de la famille des Ericaceae, originaire de Chine, couverte d'écailles de différentes tailles.
 </t>
@@ -511,12 +523,14 @@
           <t>Étymologie et histoire de la nomenclature</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de genre Rhododendron (créé par Linné en 1753) vient du grec ancien ῥoδόδενδρον rhododendron « arbre à roses », composé de ῥόδον, rhodon « rose » et δένδρον, dendron « arbre ». Remarquons que le terme existait depuis 1518 en latin des botanistes, emprunté au latin rhododendron « laurier-rose » (Pline, H.N., 16, 79 etc.[2]), lui-même repris au grec ῥoδόδενδρον  rhododendron de même sens[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de genre Rhododendron (créé par Linné en 1753) vient du grec ancien ῥoδόδενδρον rhododendron « arbre à roses », composé de ῥόδον, rhodon « rose » et δένδρον, dendron « arbre ». Remarquons que le terme existait depuis 1518 en latin des botanistes, emprunté au latin rhododendron « laurier-rose » (Pline, H.N., 16, 79 etc.), lui-même repris au grec ῥoδόδενδρον  rhododendron de même sens.
 L’épithète spécifique polylepis est dérivée du grec ancien πολύ poly signifiant « beaucoup » et  λεπίς lepis signifiant « écaille (de poisson) », en référence aux écaillesde différentes tailles qui couvrent les divers organes de la plante.
-Cette nouvelle espèce de Rhododendron a été découverte en avril 1869 par le missionnaire botaniste Armand David, à Moupin au Tibet oriental (actuellement Baoxing au Sichuan en Chine) dans les montagnes à l’ouest de Chengdu. Le père David note en bas de sa planche d’herbier « Feuilles rouillées en bas. Fleurs violet-rose, arbuste grêle de 2 à 4 m droit, très rustique. Abondant dans tous les bois ». De cette région de montagne à la flore et la faune encore préservées, le père David a envoyé au Muséum 676 spécimens de nouvelles espèces de plantes, 441 d'oiseaux, 145 de mammifères[4] dont le Panda géant. 
-Le botaniste du Muséum Adrien Franchet, spécialiste de la flore d’Asie orientale, en donna la description dans le Bulletin de la Société Botanique de France 33: 232[5], 1886.
+Cette nouvelle espèce de Rhododendron a été découverte en avril 1869 par le missionnaire botaniste Armand David, à Moupin au Tibet oriental (actuellement Baoxing au Sichuan en Chine) dans les montagnes à l’ouest de Chengdu. Le père David note en bas de sa planche d’herbier « Feuilles rouillées en bas. Fleurs violet-rose, arbuste grêle de 2 à 4 m droit, très rustique. Abondant dans tous les bois ». De cette région de montagne à la flore et la faune encore préservées, le père David a envoyé au Muséum 676 spécimens de nouvelles espèces de plantes, 441 d'oiseaux, 145 de mammifères dont le Panda géant. 
+Le botaniste du Muséum Adrien Franchet, spécialiste de la flore d’Asie orientale, en donna la description dans le Bulletin de la Société Botanique de France 33: 232, 1886.
 Le nom vernaculaire chinois est 多鳞杜鹃 duo lin dujuan, un calque du nom latin.
 </t>
         </is>
@@ -546,7 +560,9 @@
           <t>Synonyme</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Rhododendron harrovianum Hemsley.</t>
         </is>
@@ -576,13 +592,15 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Rhododendron polylepis est un arbuste ou petit arbre de 1 à 6 m de haut ; les jeunes rameaux sont longs et densément squameux (couverts d’écailles)[6]. Deux types d’écailles couvrent la plante : les plus petites marron clair, d’environ 230 microns, les plus grandes et les plus nombreuses, brun foncé, de 340 à 500 microns[7].
-La feuille simple, portée par un pétiole parsemé d’écailles, de 5 à 10 mm de long, possède un limbe coriace, oblong ou oblong-lancéolé, de 4,5–11 cm de long sur 1,5–3 cm de large[6]; la base est cunéiforme et l’apex aigu ou acuminé. Le revers (la surface abaxiale), est couvert d’écailles, inégales, les plus petites brun pâle, les plus grosses brunes, éparses; le dessus est vert foncé, avec des écailles d’abord denses puis rares[n 1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rhododendron polylepis est un arbuste ou petit arbre de 1 à 6 m de haut ; les jeunes rameaux sont longs et densément squameux (couverts d’écailles). Deux types d’écailles couvrent la plante : les plus petites marron clair, d’environ 230 microns, les plus grandes et les plus nombreuses, brun foncé, de 340 à 500 microns.
+La feuille simple, portée par un pétiole parsemé d’écailles, de 5 à 10 mm de long, possède un limbe coriace, oblong ou oblong-lancéolé, de 4,5–11 cm de long sur 1,5–3 cm de large; la base est cunéiforme et l’apex aigu ou acuminé. Le revers (la surface abaxiale), est couvert d’écailles, inégales, les plus petites brun pâle, les plus grosses brunes, éparses; le dessus est vert foncé, avec des écailles d’abord denses puis rares[n 1].
 L’inflorescence terminale ou parfois subterminale, ombellée ou courtement racémeuse, porte de 3 à 5 fleurs zygomorphe ; les pédicelles sont teintés de rouge, de 1–2 cm sont densément squameux ; les lobes du calice de 1–2 mm, sont triangulaires ou ondulés; la corolle campanulée est d’un rouge violé pâle ou profond, à l’intérieur sans taches, les lobes supérieurs avec des taches jaune pâle, de 2–3,5 cm ; les étamines inégales, sont plus longues que la corolle, l’ovaire est 5-loculaire, densément écailleux.
 Le fruit est une capsule cylindrique, de 8 à 17 mm.
-La floraison a lieu en avril-mai, la fructification de juin à août[6].
+La floraison a lieu en avril-mai, la fructification de juin à août.
 </t>
         </is>
       </c>
@@ -611,7 +629,9 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Rhododendron polylepis est une plante endémique de Chine (provinces du S Gansu, S Shaanxi, N au sud-ouest du Sichuan).
 L’espèce pousse dans les fourrés, les forêts, entre 1 500 et 3 300 m.
